--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Development/AgonLight/software/AgonElectronOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9568A04-D9DE-994A-A839-DBD58688B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73888B15-4AF1-694C-868F-B7A017E575D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="2600" windowWidth="18880" windowHeight="17000" xr2:uid="{ECD59F6F-C4A5-C740-9F2E-095C6D77DE08}"/>
+    <workbookView xWindow="20" yWindow="1060" windowWidth="29720" windowHeight="17820" xr2:uid="{ECD59F6F-C4A5-C740-9F2E-095C6D77DE08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="commands" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="75">
   <si>
     <t>bits</t>
   </si>
@@ -47,23 +48,271 @@
     <t>8 bits + start + stop bit</t>
   </si>
   <si>
-    <t>I/O per seconds</t>
-  </si>
-  <si>
-    <t>I/O measured</t>
-  </si>
-  <si>
-    <t>bytes measured</t>
+    <t>vdp_test (ez80 assembly uart0_send)</t>
+  </si>
+  <si>
+    <t>256*256</t>
+  </si>
+  <si>
+    <t>clocks</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>I/O per seconds (measured)</t>
+  </si>
+  <si>
+    <t>I/O per seconds (theory)</t>
+  </si>
+  <si>
+    <t>bytes per seconds (measured)</t>
+  </si>
+  <si>
+    <t>msx emulated IN (RST38h)</t>
+  </si>
+  <si>
+    <t>MSX timings</t>
+  </si>
+  <si>
+    <t>OUT(nn),a</t>
+  </si>
+  <si>
+    <t>OUT(c),a</t>
+  </si>
+  <si>
+    <t>IN a, (nn)</t>
+  </si>
+  <si>
+    <t>IN a, (c)</t>
+  </si>
+  <si>
+    <t>cycles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional </t>
+  </si>
+  <si>
+    <t>MSX clockspeed</t>
+  </si>
+  <si>
+    <t>Mhz</t>
+  </si>
+  <si>
+    <t>execution time</t>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>slower</t>
+  </si>
+  <si>
+    <t>secs</t>
+  </si>
+  <si>
+    <t>msecs</t>
+  </si>
+  <si>
+    <t>slower then MSX</t>
+  </si>
+  <si>
+    <t>chunks</t>
+  </si>
+  <si>
+    <t>chunksize</t>
+  </si>
+  <si>
+    <t>bytes/sec</t>
+  </si>
+  <si>
+    <t>uart_test_1</t>
+  </si>
+  <si>
+    <t>uart_test_2</t>
+  </si>
+  <si>
+    <t>msx OUT (RST28h)</t>
+  </si>
+  <si>
+    <t>direct output</t>
+  </si>
+  <si>
+    <t>interrupt driven output</t>
+  </si>
+  <si>
+    <t>seconds total minus processing</t>
+  </si>
+  <si>
+    <t>msecs per OUT</t>
+  </si>
+  <si>
+    <t>seconds for two OUTs</t>
+  </si>
+  <si>
+    <t>of theory</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>7-bits ASCII</t>
+  </si>
+  <si>
+    <t>byte 0</t>
+  </si>
+  <si>
+    <t>byte 1</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>Text:</t>
+  </si>
+  <si>
+    <t>Commands:</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>byte 2</t>
+  </si>
+  <si>
+    <t>output &lt;</t>
+  </si>
+  <si>
+    <t>input &lt;</t>
+  </si>
+  <si>
+    <t>port &lt;</t>
+  </si>
+  <si>
+    <t>&lt; !</t>
+  </si>
+  <si>
+    <t>0x17, 23, CTRL-W &lt;</t>
+  </si>
+  <si>
+    <t>8 bits ASCI &lt;!</t>
+  </si>
+  <si>
+    <t>value &lt;!</t>
+  </si>
+  <si>
+    <t>value &gt;!</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>H length &lt;</t>
+  </si>
+  <si>
+    <t>byte 3</t>
+  </si>
+  <si>
+    <t>L length &lt;</t>
+  </si>
+  <si>
+    <t>byte 4</t>
+  </si>
+  <si>
+    <t>Other commands:</t>
+  </si>
+  <si>
+    <t>output , repeat &lt;</t>
+  </si>
+  <si>
+    <t>input, repeat &lt;</t>
+  </si>
+  <si>
+    <t>byte 5</t>
+  </si>
+  <si>
+    <t>value N-1 &gt;</t>
+  </si>
+  <si>
+    <t>value N-1 &lt;</t>
+  </si>
+  <si>
+    <t>value N &lt;!</t>
+  </si>
+  <si>
+    <t>value N &gt;!</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>single I/O</t>
+  </si>
+  <si>
+    <t>mulitple I/O</t>
+  </si>
+  <si>
+    <t>msx VDP FILVRM</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>fill I/O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.000000000_ ;_ * \-#,##0.000000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.000000000_ ;_ * \-#,##0.000000000_ ;_ * &quot;-&quot;?????????_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,15 +334,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,15 +717,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D49604-FCB0-4E48-8419-D053DBDD9CC9}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1152000</v>
       </c>
@@ -441,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>A1/10</f>
         <v>115200</v>
@@ -453,73 +749,1831 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2/3</f>
         <v>38400</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>256*256</f>
+        <v>65536</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f>256*256</f>
+        <v>65536</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="11">
+        <f>256*256</f>
+        <v>65536</v>
+      </c>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5041</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>324</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="11">
+        <v>162</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>A9/100</f>
+        <v>3.26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f>F9/100</f>
+        <v>3.24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f>J9/100</f>
+        <v>11.12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="11">
+        <f>N9/100</f>
+        <v>1.62</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>(256*256)/A10</f>
+        <v>20103.067484662577</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f>(256*256)/F10</f>
+        <v>20227.160493827159</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <f>(256*256)/J10</f>
+        <v>5893.5251798561158</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="11">
+        <f>O7/N10</f>
+        <v>40454.320987654319</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>A11*3</f>
+        <v>60309.202453987731</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <f>F11*3</f>
+        <v>60681.481481481474</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f>J11*3</f>
+        <v>17680.575539568348</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="11">
+        <f>N11*2</f>
+        <v>80908.641975308637</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <f>A12/$A$2</f>
+        <v>0.52351738241308798</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4">
+        <f>F12/$A$2</f>
+        <v>0.52674897119341557</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="12">
+        <f>N12/$A$2</f>
+        <v>0.7023319615912208</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>$A$10/E18</f>
+        <v>14.840189615885414</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <f>$F$10/E18</f>
+        <v>14.7491455078125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="11">
+        <f>$N$10/E18</f>
+        <v>7.37457275390625</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>(C18+B18)*$B$24</f>
+        <v>3.3519553072625701E-6</v>
+      </c>
+      <c r="E18">
+        <f>D18*$G$7</f>
+        <v>0.21967374301675979</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f>(C19+B19)*$B$24</f>
+        <v>3.9106145251396651E-6</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E21" si="0">D19*$G$7</f>
+        <v>0.25628603351955309</v>
+      </c>
+      <c r="F19">
+        <f>$F$10/E19</f>
+        <v>12.642124720982142</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>1250</v>
+      </c>
+      <c r="K19">
+        <v>64</v>
+      </c>
+      <c r="L19">
+        <f>K19*J19</f>
+        <v>80000</v>
+      </c>
+      <c r="M19">
+        <v>2927</v>
+      </c>
+      <c r="N19" s="5">
+        <f>L19/M19*1000</f>
+        <v>27331.738981892722</v>
+      </c>
+      <c r="O19" s="4">
+        <f>N19/A$2</f>
+        <v>0.23725467866226321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>(C20+B20)*$B$24</f>
+        <v>3.3519553072625701E-6</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.21967374301675979</v>
+      </c>
+      <c r="F20">
+        <f>$J$10/E20</f>
+        <v>50.620524088541657</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20">
+        <v>2500</v>
+      </c>
+      <c r="K20">
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L23" si="1">K20*J20</f>
+        <v>80000</v>
+      </c>
+      <c r="M20">
+        <v>2939</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" ref="N20:N23" si="2">L20/M20*1000</f>
+        <v>27220.142905750254</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" ref="O20:O23" si="3">N20/A$2</f>
+        <v>0.2362859627235265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>(C21+B21)*$B$24</f>
+        <v>3.9106145251396651E-6</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.25628603351955309</v>
+      </c>
+      <c r="F21">
+        <f>$J$10/E21</f>
+        <v>43.389020647321423</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>5000</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="M21">
+        <v>2961</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="2"/>
+        <v>27017.899358324888</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.23453037637434798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>10000</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="M22">
+        <v>3008</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="2"/>
+        <v>26595.744680851061</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.23086583924349879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>3.58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>20000</v>
+      </c>
+      <c r="K23">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>A5*3</f>
-        <v>15123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="M23">
+        <v>3101</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="2"/>
+        <v>25798.129635601421</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="3"/>
+        <v>0.22394209753126235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <f>1/(B23*1000000)</f>
+        <v>2.7932960893854751E-7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <v>40000</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f>K24*J24</f>
+        <v>80000</v>
+      </c>
+      <c r="M24">
+        <v>3289</v>
+      </c>
+      <c r="N24" s="5">
+        <f>L24/M24*1000</f>
+        <v>24323.502584372149</v>
+      </c>
+      <c r="O24" s="4">
+        <f>N24/A$2</f>
+        <v>0.21114151548934157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <f>B24*1000000</f>
+        <v>0.27932960893854752</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>65535</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <f>K25*J25</f>
+        <v>196605</v>
+      </c>
+      <c r="M25">
+        <v>7776</v>
+      </c>
+      <c r="N25" s="5">
+        <f>L25/M25*1000</f>
+        <v>25283.564814814814</v>
+      </c>
+      <c r="O25" s="4">
+        <f>N25/A$2</f>
+        <v>0.2194753890174897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>N10-0.7</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29">
+        <v>400</v>
+      </c>
+      <c r="K29">
+        <v>200</v>
+      </c>
+      <c r="L29">
+        <f>K29*J29</f>
+        <v>80000</v>
+      </c>
+      <c r="M29">
+        <v>975</v>
+      </c>
+      <c r="N29" s="5">
+        <f>L29/M29*1000</f>
+        <v>82051.282051282062</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" ref="O29:O37" si="4">N29/A$2</f>
+        <v>0.71225071225071235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>B29/O7</f>
+        <v>1.4038085937500002E-5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30">
+        <f>J31/2</f>
+        <v>625</v>
+      </c>
+      <c r="K30">
+        <v>128</v>
+      </c>
+      <c r="L30">
+        <f>K30*J30</f>
+        <v>80000</v>
+      </c>
+      <c r="M30">
+        <v>977</v>
+      </c>
+      <c r="N30" s="5">
+        <f>L30/M30*1000</f>
+        <v>81883.316274309109</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="4"/>
+        <v>0.71079267599226659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>B30*1000/2</f>
+        <v>7.0190429687500009E-3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31">
+        <v>1250</v>
+      </c>
+      <c r="K31">
+        <v>64</v>
+      </c>
+      <c r="L31">
+        <f>K31*J31</f>
+        <v>80000</v>
+      </c>
+      <c r="M31">
+        <v>978</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" ref="N31:N36" si="5">L31/M31*1000</f>
+        <v>81799.591002044996</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.71006589411497389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>2500</v>
+      </c>
+      <c r="K32">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f>A9*A8</f>
-        <v>768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>A5/A10</f>
-        <v>6.563802083333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f>A10/A5</f>
-        <v>0.15235072406268599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f>16*1024</f>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f>A14/A5</f>
-        <v>3.2501487800039675</v>
+      <c r="L32">
+        <f t="shared" ref="L32:L36" si="6">K32*J32</f>
+        <v>80000</v>
+      </c>
+      <c r="M32">
+        <v>997</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="5"/>
+        <v>80240.722166499501</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="4"/>
+        <v>0.69653404658419704</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>5000</v>
+      </c>
+      <c r="K33">
+        <v>16</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>80000</v>
+      </c>
+      <c r="M33">
+        <v>1015</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="5"/>
+        <v>78817.733990147783</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="4"/>
+        <v>0.6841817186644773</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>10000</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>80000</v>
+      </c>
+      <c r="M34">
+        <v>1064</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="5"/>
+        <v>75187.969924812031</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="4"/>
+        <v>0.65267335004177107</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>20000</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>80000</v>
+      </c>
+      <c r="M35">
+        <v>1161</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" si="5"/>
+        <v>68906.11541774332</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="4"/>
+        <v>0.59814336300124404</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>40000</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>80000</v>
+      </c>
+      <c r="M36">
+        <v>1335</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="5"/>
+        <v>59925.0936329588</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="4"/>
+        <v>0.52018310445276739</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>65535</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f>K37*J37</f>
+        <v>196605</v>
+      </c>
+      <c r="M37">
+        <v>2983</v>
+      </c>
+      <c r="N37" s="5">
+        <f>L37/M37*1000</f>
+        <v>65908.481394569215</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="4"/>
+        <v>0.5721222343278578</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>65535</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <f>K38*J38</f>
+        <v>131070</v>
+      </c>
+      <c r="M38">
+        <v>2186</v>
+      </c>
+      <c r="N38" s="5">
+        <f>L38/M38*1000</f>
+        <v>59958.828911253433</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" ref="O38" si="7">N38/A$2</f>
+        <v>0.52047594541018605</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B66013-96C2-0146-9E53-8F74B0183863}">
+  <dimension ref="A1:BB21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="3.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="26" width="3.83203125" customWidth="1"/>
+    <col min="28" max="35" width="3.83203125" customWidth="1"/>
+    <col min="37" max="44" width="3.83203125" customWidth="1"/>
+    <col min="46" max="53" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" s="7" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" s="6" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6">
+        <v>5</v>
+      </c>
+      <c r="M2" s="6">
+        <v>4</v>
+      </c>
+      <c r="N2" s="6">
+        <v>3</v>
+      </c>
+      <c r="O2" s="6">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>7</v>
+      </c>
+      <c r="T2" s="6">
+        <v>6</v>
+      </c>
+      <c r="U2" s="6">
+        <v>5</v>
+      </c>
+      <c r="V2" s="6">
+        <v>4</v>
+      </c>
+      <c r="W2" s="6">
+        <v>3</v>
+      </c>
+      <c r="X2" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>7</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="6">
+        <v>7</v>
+      </c>
+      <c r="AU2" s="6">
+        <v>6</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>5</v>
+      </c>
+      <c r="AW2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" s="6" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Development/AgonLight/software/AgonElectronOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73888B15-4AF1-694C-868F-B7A017E575D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5AC74F-1082-D848-96E5-69B9AC4DA90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1060" windowWidth="29720" windowHeight="17820" xr2:uid="{ECD59F6F-C4A5-C740-9F2E-095C6D77DE08}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="29720" windowHeight="17820" activeTab="1" xr2:uid="{ECD59F6F-C4A5-C740-9F2E-095C6D77DE08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D49604-FCB0-4E48-8419-D053DBDD9CC9}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1574,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B66013-96C2-0146-9E53-8F74B0183863}">
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
